--- a/RIZAP Issues/RIZAP CRM issues.xlsx
+++ b/RIZAP Issues/RIZAP CRM issues.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAUL.KANG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebApp Projects\RIZAP-CRM\web-tools\RIZAP Issues\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9878" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9878"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -1400,66 +1400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> [2021-07-28 Paul Kang]:
-1. The bug of deducting the products amount is fixed on 7/28.
-2. Sessions CSV data needs to reflect the session status according to date. This would would be fixed by 8/4.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3. Instead of CSV export file, uCare implements Sessions data in the Web tools. 
-https://rizap-crm.github.io/web-tools/indexV2Alpha.html</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2021-08-04 Paul Kang]:
-Under investigation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[2021-07-12 Paul Kang:]
-2012-07-12 Benjamin confirmed the definitation of "Refund amount".
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Benjamin replied the definitioons on 7/22.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Under discussion, please see E15 in the YearContract worksheet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2021-7-22 Benjamin:
 Case1: 假設10堂，共10萬元
 3/31前付清，並執行了6次
@@ -1497,12 +1437,112 @@
 取消2萬、2堂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [2021-07-28 Paul Kang]:
+1. The bug of deducting the products amount is fixed on 7/28.
+2. Sessions CSV data needs to reflect the session status according to date. This would would be fixed by 8/4.
+3. Instead of CSV export file, uCare implements Sessions data in the Web tools. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+[2021-08-16 Paul Kang]:
+The errors in "session CSV </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>錯誤整理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.pptx"(provided in 7/16) are fixed in the web tool, https://rizap-crm.github.io/web-tools/indexV2Alpha.html. Please Benjamin help to confirm.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2021-08-04 Paul Kang]:
+Under investigation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+[2021-08-16 Paul Kang]:
+Combined into issue#1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[2021-07-12 Paul Kang:]
+2012-07-12 Benjamin confirmed the definitation of "Refund amount".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Benjamin replied the definitioons on 7/22.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+[2021-08-16 Paul Kang]:
+Instead of CSV export file, uCare implements Sessions data in the Web tools. There are 76 columns, under development. Under developing.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1565,6 +1605,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
@@ -2029,8 +2076,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2096,7 +2143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="165" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -2112,8 +2159,8 @@
       <c r="F6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>262</v>
+      <c r="G6" s="18" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="28" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.45">
@@ -2171,7 +2218,7 @@
         <v>259</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="255" x14ac:dyDescent="0.45">
@@ -2247,7 +2294,7 @@
         <v>257</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2987,7 +3034,7 @@
   <sheetPr codeName="工作表6"/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -3162,10 +3209,10 @@
         <v>139</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>239</v>

--- a/RIZAP Issues/RIZAP CRM issues.xlsx
+++ b/RIZAP Issues/RIZAP CRM issues.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="268">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1452,7 +1452,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-[2021-08-16 Paul Kang]:
+[2021-08-18 Paul Kang]:
 The errors in "session CSV </t>
     </r>
     <r>
@@ -1478,12 +1478,49 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">[2021-07-12 Paul Kang:]
+2012-07-12 Benjamin confirmed the definitation of "Refund amount".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Benjamin replied the definitioons on 7/22.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+[2021-08-18 Paul Kang]:
+Instead of CSV export file, uCare implements Sessions data in the Web tools. There are 76 columns, under development. Under developing.</t>
+    </r>
+    <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>[2021-08-04 Paul Kang]:
 Under investigation</t>
     </r>
@@ -1495,35 +1532,25 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-[2021-08-16 Paul Kang]:
+[2021-08-17 Paul Kang]:
 Combined into issue#1</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">[2021-07-12 Paul Kang:]
-2012-07-12 Benjamin confirmed the definitation of "Refund amount".
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Benjamin replied the definitioons on 7/22.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-[2021-08-16 Paul Kang]:
-Instead of CSV export file, uCare implements Sessions data in the Web tools. There are 76 columns, under development. Under developing.</t>
+      <t xml:space="preserve">[Type: Operating understanding]
+Contract#482 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>李昱璇</t>
     </r>
     <r>
       <rPr>
@@ -1532,7 +1559,41 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">, session on 8/14 is not approved, the displayed expiry date is not updated correctly.
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2021-02-17 Paul Kang]:
+This is not a bug. Suggest to close.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[2021-08-16 Paul Kang]:
+According to the CRM design logic, the approved sessions will be checked at 11pm everyday, then all according data will be updated.
+[2021-02-17 Paul Kang]:
+Contract#482 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>李昱璇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> expiry date has been updated correctly, automatically.
 </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2074,10 +2135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F34" sqref="F33:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2160,7 +2221,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="28" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.45">
@@ -2294,7 +2355,27 @@
         <v>257</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="136.15" x14ac:dyDescent="0.45">
+      <c r="B14" s="3">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <v>44424</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/RIZAP Issues/RIZAP CRM issues.xlsx
+++ b/RIZAP Issues/RIZAP CRM issues.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="271">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1127,140 +1127,6 @@
 Use a flag to identify the update the expiration date. This is done at 2021-07-19.
 UI display: Discussed in 2021-07-29 MTG.  Closed
 Because the expiration date is updated by the scanning program at night. The CRM UI display of the expiration date will not be correct if we show the expiration date in the database. So the UI now display "First Session date + course period" which may not be consistent with the expiration date. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Bug type: CSV export]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">黃思恬 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Admission Fee recognize date incorrect
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">After cancel the contract of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>夏道緣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, cannot create new contract for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>夏道緣。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[2021-07-18 Paul Kang]: 
-The contract cancelled was the only one contract of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>夏道緣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, deleting it will cause conflicts in the database. </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[2017-07-18 Paul Kang]: Closed
-It needs to delete </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>夏道緣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> from the Guest Management, then create a new guest for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>夏道緣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> with a contract from the Cuest Inquery.
-  </t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1439,6 +1305,159 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">[Type: Operating understanding]
+Contract#482 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>李昱璇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, session on 8/14 is not approved, the displayed expiry date is not updated correctly.
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[2021-08-16 Paul Kang]:
+According to the CRM design logic, the approved sessions will be checked at 11pm everyday, then all according data will be updated.
+[2021-02-17 Paul Kang]:
+Contract#482 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>李昱璇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> expiry date has been updated correctly, automatically.
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2021-08-04 Paul Kang]:
+Under investigation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+[2021-08-17 Paul Kang]:
+Combined into issue#2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2021-08-17 Paul Kang]:
+Combined into issue#2, Closed at 8/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2021-02-17 Paul Kang]:
+This is not a bug. Closed at 8/19.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2021-08-04 Paul Kang]:
+Under investigation
+[2021-08-17 Paul Kang]:
+Combined into issue#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10
+Closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11
+Closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[2017-07-18 Paul Kang]: Closed
+It needs to delete </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>夏道緣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from the Guest Management, then create a new guest for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>夏道緣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with a contract from the Cuest Inquery.
+  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve"> [2021-07-28 Paul Kang]:
 1. The bug of deducting the products amount is fixed on 7/28.
 2. Sessions CSV data needs to reflect the session status according to date. This would would be fixed by 8/4.
@@ -1472,8 +1491,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>.pptx"(provided in 7/16) are fixed in the web tool, https://rizap-crm.github.io/web-tools/indexV2Alpha.html. Please Benjamin help to confirm.</t>
-    </r>
+      <t>.pptx"(provided in 7/16) are fixed in the web tool, https://rizap-crm.github.io/web-tools/indexV2Alpha.html. Please Benjamin help to confirm.
+Closed at 8/19</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5
+Closed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1498,8 +1523,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 
-[2021-08-18 Paul Kang]:
-Instead of CSV export file, uCare implements Sessions data in the Web tools. There are 76 columns, under development. Under developing.</t>
+</t>
     </r>
     <r>
       <rPr>
@@ -1508,12 +1532,20 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>[2021-08-18 Paul Kang]:
+Instead of CSV export file, uCare implements Sessions data in the Web tools. There are 76 columns, under development. Under developing.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+[2021-08-19 Meeting]:
+Benjamin will arrange an afternoon to uCare to discuss the defininations.</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1521,81 +1553,20 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[2021-08-04 Paul Kang]:
-Under investigation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">
-[2021-08-17 Paul Kang]:
-Combined into issue#1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Type: Operating understanding]
-Contract#482 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>李昱璇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, session on 8/14 is not approved, the displayed expiry date is not updated correctly.
 </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2021-02-17 Paul Kang]:
-This is not a bug. Suggest to close.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[2021-08-16 Paul Kang]:
-According to the CRM design logic, the approved sessions will be checked at 11pm everyday, then all according data will be updated.
-[2021-02-17 Paul Kang]:
-Contract#482 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>李昱璇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> expiry date has been updated correctly, automatically.
-</t>
-    </r>
+    <t>[2021-08-19 Meeting]:
+Kobayashi san would like to have the English translation for the branches in USA.
+Actions: 
+1. uCare to provide the quotation, due date:8/31
+2. uCare to provide the Excel for translation, due date: 8/31
+3. RIZAP to complete the translations, due date: TBD
+4. uCare to integrate the translation into the CRM, due date: TBD + 1 week.
+5. uCare and RIZAP TW to create a new Virtual Machine Server for USA CRM system.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1603,7 +1574,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1665,13 +1636,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="細明體"/>
       <family val="3"/>
@@ -1724,7 +1688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1748,9 +1712,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1781,9 +1742,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1821,25 +1779,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1848,11 +1791,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2137,8 +2077,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F34" sqref="F33:F34"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2164,47 +2104,47 @@
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>44364</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="165" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="225" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -2217,69 +2157,69 @@
       <c r="E6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="28" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="31" t="s">
+      <c r="G6" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="26" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="23">
         <v>44390</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="32" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="28" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="31">
+    <row r="8" spans="1:7" s="26" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="29">
         <v>4</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="23">
         <v>44391</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" ht="272.25" x14ac:dyDescent="0.45">
-      <c r="B9" s="3">
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:7" s="26" customFormat="1" ht="272.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="22">
         <v>5</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="23">
         <v>44392</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>262</v>
+      <c r="F9" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="255" x14ac:dyDescent="0.45">
@@ -2293,89 +2233,94 @@
         <v>17</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="F10" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="77.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="26"/>
+      <c r="B11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="23">
+        <v>44394</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="26" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="23">
+        <v>44399</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="26" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="23">
+        <v>44412</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="26" customFormat="1" ht="136.15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="23">
+        <v>44424</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" ht="77.25" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="28"/>
-      <c r="B11" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="25">
-        <v>44394</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="28" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="C12" s="25">
-        <v>44399</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="B13" s="3">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5">
-        <v>44412</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="136.15" x14ac:dyDescent="0.45">
-      <c r="B14" s="3">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5">
-        <v>44424</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>266</v>
+      <c r="F14" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2391,10 +2336,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="B1:G9"/>
+  <dimension ref="B1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2420,127 +2365,185 @@
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="4" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="32" customFormat="1" ht="60" x14ac:dyDescent="0.45">
-      <c r="B5" s="35" t="s">
+    <row r="5" spans="2:7" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.45">
+      <c r="B5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="23">
         <v>44364</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="26" customFormat="1" ht="150" x14ac:dyDescent="0.45">
+      <c r="B6" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="F5" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" s="32" customFormat="1" ht="150" x14ac:dyDescent="0.45">
-      <c r="B6" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" s="34">
+      <c r="C6" s="23">
         <v>44390</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="32" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="2:7" s="32" customFormat="1" ht="135" x14ac:dyDescent="0.45">
-      <c r="B7" s="35" t="s">
+    <row r="7" spans="2:7" s="26" customFormat="1" ht="272.25" x14ac:dyDescent="0.45">
+      <c r="B7" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="23">
+        <v>44392</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="2:7" s="26" customFormat="1" ht="135" x14ac:dyDescent="0.45">
+      <c r="B8" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="23">
+        <v>44391</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="2:7" s="26" customFormat="1" ht="77.25" x14ac:dyDescent="0.45">
+      <c r="B9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="23">
+        <v>44394</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="26" customFormat="1" ht="105" x14ac:dyDescent="0.45">
+      <c r="B10" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="C7" s="34">
-        <v>44391</v>
-      </c>
-      <c r="D7" s="33" t="s">
+      <c r="C10" s="23">
+        <v>44399</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="42"/>
-    </row>
-    <row r="8" spans="2:7" s="32" customFormat="1" ht="77.25" x14ac:dyDescent="0.45">
-      <c r="B8" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="34">
-        <v>44394</v>
-      </c>
-      <c r="D8" s="33" t="s">
+      <c r="E10" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="26" customFormat="1" ht="90" x14ac:dyDescent="0.45">
+      <c r="B11" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="23">
+        <v>44412</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="26" customFormat="1" ht="136.15" x14ac:dyDescent="0.45">
+      <c r="B12" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="23">
+        <v>44424</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" s="32" customFormat="1" ht="105" x14ac:dyDescent="0.45">
-      <c r="B9" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="C9" s="34">
-        <v>44399</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>241</v>
+      <c r="E12" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G6:G8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2724,11 +2727,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2860,10 +2863,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -3115,7 +3118,7 @@
   <sheetPr codeName="工作表6"/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -3279,23 +3282,23 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="20" customFormat="1" ht="322.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:6" s="18" customFormat="1" ht="322.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="D15" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3486,14 +3489,14 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="20" t="s">
+    <row r="33" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="18" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3509,7 +3512,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="20" t="s">
         <v>207</v>
       </c>
       <c r="B35" t="s">
@@ -3575,7 +3578,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="20" t="s">
         <v>213</v>
       </c>
       <c r="B41" t="s">
@@ -3673,48 +3676,48 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>223</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="18" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>224</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>225</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C52" s="27"/>
+      <c r="D52" s="28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>226</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C53" s="29"/>
+      <c r="C53" s="27"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
@@ -3849,10 +3852,10 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="21"/>
+      <c r="A66" s="19"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="21"/>
+      <c r="A67" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/RIZAP Issues/RIZAP CRM issues.xlsx
+++ b/RIZAP Issues/RIZAP CRM issues.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="284">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -583,9 +583,6 @@
     <t>剩餘堂數</t>
   </si>
   <si>
-    <t>退費堂數</t>
-  </si>
-  <si>
     <t>前年度剩餘堂數</t>
   </si>
   <si>
@@ -625,9 +622,6 @@
     <t>2022/3已使用</t>
   </si>
   <si>
-    <t>前年度未認列(未稅)</t>
-  </si>
-  <si>
     <t>2021/4已認列</t>
   </si>
   <si>
@@ -682,37 +676,6 @@
     <t>折讓金額</t>
   </si>
   <si>
-    <t>退費金額</t>
-  </si>
-  <si>
-    <t>定義???????</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>課程單價(含稅)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合約總價(含稅)/合約堂數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合約原價(未稅)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/31之前合約剩餘金額(未稅)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?????</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此合約於 2021 年 4 月使用的堂數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>此合約於 2021 年 5 月使用的堂數</t>
   </si>
   <si>
@@ -737,20 +700,12 @@
     <t>此合約於 2021 年 12 月使用的堂數</t>
   </si>
   <si>
-    <t>此合約於 2022 年 1 月使用的堂數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>此合約於 2022 年 2 月使用的堂數</t>
   </si>
   <si>
     <t>此合約於 2022 年 3 月使用的堂數</t>
   </si>
   <si>
-    <t>此合約於 2021 年 4 月認列的金額(未稅)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>此合約於 2021 年 5 月認列的金額(未稅)</t>
   </si>
   <si>
@@ -775,308 +730,10 @@
     <t>此合約於 2021 年 12 月認列的金額(未稅)</t>
   </si>
   <si>
-    <t>此合約於 2022 年 1 月認列的金額(未稅)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>此合約於 2022 年 2 月認列的金額(未稅)</t>
   </si>
   <si>
     <t>此合約於 2022 年 3 月認列的金額(未稅)</t>
-  </si>
-  <si>
-    <t>合約已認列收入(含稅)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合約未認列金額(含稅)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款日1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款日2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退費後還要記錄?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/31之前已認列金額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulated case, please Benjamin confirm
-Case3: 假設10堂，共10萬元
-4/1 開始，7/1 前付 8 萬元，並執行了6次
-於7/2 全額退費
-表示方式如下
-Q列 前年度剩餘堂數 0
-R列 3/31之前已認列金額 0
-S列 3/31之前合約剩餘金額(未稅) 0元
-AY列 折讓金額 8萬元
-問題: T~V 和 AG~AI 仍需記錄嗎?
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>??? see YearContract Row#15</t>
@@ -1115,10 +772,6 @@
 UI display: Discussed in 2021-07-29 MTG.  Closed
 Because the expiration date is updated by the scanning program at night. The CRM UI display of the expiration date will not be correct if we show the expiration date in the database. So the UI now display "First Session date + course period" which may not be consistent with the expiration date. </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合約金額減除已付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1137,10 +790,6 @@
   <si>
     <t>4
 Closed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請考慮入會費和手續費的例子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1263,44 +912,6 @@
 2. RIZAP would like the Sessions CSV data needs to reflect the session status according to date. No historical statistic of each session in database. It would need to trace back to re-calculate the historical data.
 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-7-22 Benjamin:
-Case1: 假設10堂，共10萬元
-3/31前付清，並執行了6次
-於4/01全額退費
-表示方式如下
-Q列 前年度剩餘堂數 4
-R列 3/31之前已認列金額 6萬
-S列 3/31之前合約剩餘金額(未稅) 38,095.23元
-AY列 折讓金額 10萬元
-事務所指示，如能將折讓金額分為兩種會更好理解。
-勞務收入折讓 6萬元
-預收折讓 4萬元
-&gt;&gt;&gt;
-前年度剩餘4萬
-折讓10萬、10堂 ?
-取消0萬、0堂 ?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Simulated case, please Benjamin confirm
-Case2: 假設10堂，共10萬元
-3/31前付 8 萬元，並執行了6次
-於4/01全額退費
-表示方式如下
-Q列 前年度剩餘堂數 4
-R列 3/31之前已認列金額 6萬
-S列 3/31之前合約剩餘金額(未稅) 38,095.23元
-AY列 折讓金額 8萬元
-Ben: 2021-08-02
-關於上回的問題，
-假設10次10萬，上年度付了8萬，上了6堂，本年度退費
-&gt;&gt;&gt;
-前年度剩餘4萬
-折讓2萬、2堂, 跟 AY列 折讓金額 8萬元不同? 
-取消2萬、2堂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1568,6 +1179,316 @@
 4. uCare to integrate the translation into the CRM, due date: TBD + 1 week.
 5. uCare and RIZAP TW to create a new Virtual Machine Server for USA CRM system.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Column </t>
+  </si>
+  <si>
+    <t>Definition (2021-07-28 By Paul Kang and Benjamin</t>
+  </si>
+  <si>
+    <t>2021-08-06 by Benjamin</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>上課店鋪</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>客戶名字</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>合約上的簽訂日期</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>合約已執行堂數</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>課程單價(含稅)</t>
+  </si>
+  <si>
+    <t>合約總價(含稅)/合約堂數</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>課程單價(未稅)</t>
+  </si>
+  <si>
+    <t>合約總價(未稅)/合約堂數</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>期初可用堂數</t>
+  </si>
+  <si>
+    <t>更名</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>上期認列金額(未稅)</t>
+  </si>
+  <si>
+    <t>3/31之前已認列金額</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>上期為認列金額(未稅)</t>
+  </si>
+  <si>
+    <t>3/31之前合約剩餘金額(未稅)</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>此合約於 2021 年 4 月使用的堂數</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>此合約於 2022 年 1 月使用的堂數</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>此合約於 2021 年 4 月認列的金額(未稅)</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>此合約於 2022 年 1 月認列的金額(未稅)</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>合約已認列收入(含稅)</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>合約未認列金額(含稅)</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>退費後還要記錄?</t>
+  </si>
+  <si>
+    <t>需要保留紀錄</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>合約金額減除已付款</t>
+  </si>
+  <si>
+    <t>取消堂數</t>
+  </si>
+  <si>
+    <t>【未付款之退費課程】</t>
+  </si>
+  <si>
+    <t>取消金額</t>
+  </si>
+  <si>
+    <t>【取消 = 未收到款項的課程】
+例A : 10萬的合約只付了5萬，此時客人剩餘的不付了
+= 取消5萬
+例B : 10萬的合約付了8萬，上到6萬時退費
+= 取消2萬、折讓2萬</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>【折讓 = 合約剩餘金額】
+例A: 全額退費 = 整張合約金額
+例B: 合約全額付清，部分退費時 = 合約剩餘金額</t>
+  </si>
+  <si>
+    <t>折讓堂數</t>
+  </si>
+  <si>
+    <t>【已付款之退費課程】</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>手續費</t>
+  </si>
+  <si>
+    <t>可於解約畫面自行輸入，無須公式</t>
+  </si>
+  <si>
+    <t>折讓稅額</t>
+  </si>
+  <si>
+    <t>【定義】
+( 折讓金額 - 手續費 ) / 1.05 * 5%</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>付款日1</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>付款日2</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>BL</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1682,13 +1603,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1746,6 +1678,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1753,46 +1730,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2161,65 +2111,65 @@
         <v>12</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="26" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="24" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="21">
         <v>44390</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="32" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="26" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="29">
+      <c r="G7" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="24" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="25">
         <v>4</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="21">
         <v>44391</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="1:7" s="26" customFormat="1" ht="272.25" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="22">
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" s="24" customFormat="1" ht="272.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="20">
         <v>5</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="21">
         <v>44392</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>267</v>
+      <c r="F9" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="255" x14ac:dyDescent="0.45">
@@ -2233,94 +2183,94 @@
         <v>17</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>251</v>
+        <v>165</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>270</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="77.25" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="26"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="21">
         <v>44394</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="26" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="C12" s="23">
+    <row r="12" spans="1:7" s="24" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="21">
         <v>44399</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="24" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="26" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="C13" s="23">
+      <c r="G12" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="24" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="21">
         <v>44412</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="26" customFormat="1" ht="136.15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" s="23">
+      <c r="D13" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="24" customFormat="1" ht="136.15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="21">
         <v>44424</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>262</v>
+      <c r="E14" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2385,160 +2335,160 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.45">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="2:7" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.45">
+      <c r="B5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="21">
         <v>44364</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="26" customFormat="1" ht="150" x14ac:dyDescent="0.45">
-      <c r="B6" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="23">
+    <row r="6" spans="2:7" s="24" customFormat="1" ht="150" x14ac:dyDescent="0.45">
+      <c r="B6" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="21">
         <v>44390</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" s="26" customFormat="1" ht="272.25" x14ac:dyDescent="0.45">
-      <c r="B7" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="G6" s="29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="24" customFormat="1" ht="272.25" x14ac:dyDescent="0.45">
+      <c r="B7" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="21">
         <v>44392</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="2:7" s="26" customFormat="1" ht="135" x14ac:dyDescent="0.45">
-      <c r="B8" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="23">
+      <c r="F7" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="2:7" s="24" customFormat="1" ht="135" x14ac:dyDescent="0.45">
+      <c r="B8" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="21">
         <v>44391</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="2:7" s="26" customFormat="1" ht="77.25" x14ac:dyDescent="0.45">
-      <c r="B9" s="24" t="s">
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="2:7" s="24" customFormat="1" ht="77.25" x14ac:dyDescent="0.45">
+      <c r="B9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="21">
         <v>44394</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="31" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" s="26" customFormat="1" ht="105" x14ac:dyDescent="0.45">
-      <c r="B10" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="23">
+      <c r="G9" s="27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.45">
+      <c r="B10" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="21">
         <v>44399</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" s="26" customFormat="1" ht="90" x14ac:dyDescent="0.45">
-      <c r="B11" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="C11" s="23">
+      <c r="G10" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="24" customFormat="1" ht="90" x14ac:dyDescent="0.45">
+      <c r="B11" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="21">
         <v>44412</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" s="26" customFormat="1" ht="136.15" x14ac:dyDescent="0.45">
-      <c r="B12" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="C12" s="23">
+      <c r="D11" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="24" customFormat="1" ht="136.15" x14ac:dyDescent="0.45">
+      <c r="B12" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="21">
         <v>44424</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>262</v>
+      <c r="E12" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2732,7 +2682,7 @@
         <v>47</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -2863,10 +2813,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -3116,10 +3066,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -3131,733 +3081,817 @@
     <col min="6" max="6" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C2" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C3" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C4" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D5" s="32"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C8" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="32"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="32"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="32"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="32"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="32"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" s="31"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="32"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="32"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="32"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="32"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="18" customFormat="1" ht="322.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="21" t="s">
+      <c r="D27" s="32"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="32"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" s="32"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="32"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="32"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32" s="32"/>
+    </row>
+    <row r="33" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="32"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="32"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="32"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="32"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="32"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="32"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="32"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="32"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="D41" s="32"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="32"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="32"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D44" s="37"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="37"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D46" s="37"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="37"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="D49" s="33"/>
+    </row>
+    <row r="50" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="32"/>
+      <c r="B50" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>192</v>
-      </c>
-      <c r="B20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>198</v>
-      </c>
-      <c r="B21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>196</v>
-      </c>
-      <c r="B26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>197</v>
-      </c>
-      <c r="B27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>200</v>
-      </c>
-      <c r="B28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>201</v>
-      </c>
-      <c r="B29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>202</v>
-      </c>
-      <c r="B30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>203</v>
-      </c>
-      <c r="B31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>204</v>
-      </c>
-      <c r="B32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>206</v>
-      </c>
-      <c r="B34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="B35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>208</v>
-      </c>
-      <c r="B36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>209</v>
-      </c>
-      <c r="B37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>210</v>
-      </c>
-      <c r="B38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>211</v>
-      </c>
-      <c r="B39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>212</v>
-      </c>
-      <c r="B40" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="B41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>214</v>
-      </c>
-      <c r="B42" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>215</v>
-      </c>
-      <c r="B43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>216</v>
-      </c>
-      <c r="B44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>217</v>
-      </c>
-      <c r="B45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>218</v>
-      </c>
-      <c r="B46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>220</v>
-      </c>
-      <c r="B47" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>221</v>
-      </c>
-      <c r="B48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>222</v>
-      </c>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>223</v>
-      </c>
-      <c r="B50" s="18" t="s">
+      <c r="C50" s="33"/>
+      <c r="D50" s="39" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="18" customFormat="1" ht="80.650000000000006" x14ac:dyDescent="0.45">
+      <c r="A51" s="32"/>
+      <c r="B51" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C51" s="36"/>
+      <c r="D51" s="40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="18" customFormat="1" ht="48.4" x14ac:dyDescent="0.45">
+      <c r="A52" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="B52" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>224</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>225</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="28" t="s">
-        <v>247</v>
+      <c r="C52" s="36"/>
+      <c r="D52" s="40" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>226</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" s="27"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C53" s="33"/>
+      <c r="D53" s="39" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>227</v>
-      </c>
-      <c r="B54" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>228</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="A54" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="32.25" x14ac:dyDescent="0.45">
+      <c r="A55" s="32"/>
+      <c r="B55" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C55" s="36"/>
+      <c r="D55" s="40" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D56" s="32"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="B57" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C57" s="32" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>229</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="D57" s="32"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="B58" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C58" s="32" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>230</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="D58" s="32"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="B59" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C59" s="32" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>231</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="D59" s="32"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="B60" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C60" s="32" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>232</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="D60" s="32"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="B61" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C61" s="32" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>233</v>
-      </c>
-      <c r="B60" t="s">
-        <v>172</v>
-      </c>
-      <c r="C60" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>234</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="D61" s="32"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D62" s="32"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="B63" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C63" s="32" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>235</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="D63" s="32"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="B64" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C64" s="32" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>236</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="D64" s="32"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="B65" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C65" s="32" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>237</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="B66" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C66" s="32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>238</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="B67" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C67" s="32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="19"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="19"/>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="34"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="34"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D17:D19"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/RIZAP Issues/RIZAP CRM issues.xlsx
+++ b/RIZAP Issues/RIZAP CRM issues.xlsx
@@ -736,10 +736,6 @@
     <t>此合約於 2022 年 3 月認列的金額(未稅)</t>
   </si>
   <si>
-    <t>??? see YearContract Row#15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">[2021-07-23 Paul Kang]:  Closed
 Solution: Recover the password from thr backup database.
 Suggestion: Create a new HQ account and use the working email address.
@@ -806,6 +802,580 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Yuma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[Type: CSV YearContract Data incorrect]
+The records in column M are in the correct state if they are above 0, but there are some that are -1. Please investigate the cause.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[2021-07-15 Paul Kang]:
+Please Benjamin to provide the screenshots of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中川</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sessions and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>三宅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> rizap control excel for reference. uCare will evaluate the effoerts/time.
+[2021-07-16]: Benjamin provides the powerpoint and csv files.
+ [2017-07-21 Paul Kang]:
+1. Sales management is dffferent from the Sessions CSV files. We found a bug of deducting the products amount again.
+2. RIZAP would like the Sessions CSV data needs to reflect the session status according to date. No historical statistic of each session in database. It would need to trace back to re-calculate the historical data.
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Type: Operating understanding]
+Contract#482 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>李昱璇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, session on 8/14 is not approved, the displayed expiry date is not updated correctly.
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[2021-08-16 Paul Kang]:
+According to the CRM design logic, the approved sessions will be checked at 11pm everyday, then all according data will be updated.
+[2021-02-17 Paul Kang]:
+Contract#482 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>李昱璇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> expiry date has been updated correctly, automatically.
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2021-08-04 Paul Kang]:
+Under investigation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+[2021-08-17 Paul Kang]:
+Combined into issue#2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2021-08-17 Paul Kang]:
+Combined into issue#2, Closed at 8/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2021-02-17 Paul Kang]:
+This is not a bug. Closed at 8/19.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2021-08-04 Paul Kang]:
+Under investigation
+[2021-08-17 Paul Kang]:
+Combined into issue#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10
+Closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11
+Closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[2017-07-18 Paul Kang]: Closed
+It needs to delete </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>夏道緣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from the Guest Management, then create a new guest for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>夏道緣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with a contract from the Cuest Inquery.
+  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [2021-07-28 Paul Kang]:
+1. The bug of deducting the products amount is fixed on 7/28.
+2. Sessions CSV data needs to reflect the session status according to date. This would would be fixed by 8/4.
+3. Instead of CSV export file, uCare implements Sessions data in the Web tools. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+[2021-08-18 Paul Kang]:
+The errors in "session CSV </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>錯誤整理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.pptx"(provided in 7/16) are fixed in the web tool, https://rizap-crm.github.io/web-tools/indexV2Alpha.html. Please Benjamin help to confirm.
+Closed at 8/19</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5
+Closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Definition (2021-07-28 By Paul Kang and Benjamin</t>
+  </si>
+  <si>
+    <t>2021-08-06 by Benjamin</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>上課店鋪</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>客戶名字</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>合約上的簽訂日期</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>合約已執行堂數</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>課程單價(含稅)</t>
+  </si>
+  <si>
+    <t>合約總價(含稅)/合約堂數</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>課程單價(未稅)</t>
+  </si>
+  <si>
+    <t>合約總價(未稅)/合約堂數</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>更名</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>上期認列金額(未稅)</t>
+  </si>
+  <si>
+    <t>3/31之前已認列金額</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>上期為認列金額(未稅)</t>
+  </si>
+  <si>
+    <t>3/31之前合約剩餘金額(未稅)</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>此合約於 2021 年 4 月使用的堂數</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>此合約於 2022 年 1 月使用的堂數</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>此合約於 2021 年 4 月認列的金額(未稅)</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>此合約於 2022 年 1 月認列的金額(未稅)</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>合約已認列收入(含稅)</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>合約未認列金額(含稅)</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>退費後還要記錄?</t>
+  </si>
+  <si>
+    <t>需要保留紀錄</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>合約金額減除已付款</t>
+  </si>
+  <si>
+    <t>取消堂數</t>
+  </si>
+  <si>
+    <t>【未付款之退費課程】</t>
+  </si>
+  <si>
+    <t>取消金額</t>
+  </si>
+  <si>
+    <t>【取消 = 未收到款項的課程】
+例A : 10萬的合約只付了5萬，此時客人剩餘的不付了
+= 取消5萬
+例B : 10萬的合約付了8萬，上到6萬時退費
+= 取消2萬、折讓2萬</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>【折讓 = 合約剩餘金額】
+例A: 全額退費 = 整張合約金額
+例B: 合約全額付清，部分退費時 = 合約剩餘金額</t>
+  </si>
+  <si>
+    <t>折讓堂數</t>
+  </si>
+  <si>
+    <t>【已付款之退費課程】</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>手續費</t>
+  </si>
+  <si>
+    <t>可於解約畫面自行輸入，無須公式</t>
+  </si>
+  <si>
+    <t>折讓稅額</t>
+  </si>
+  <si>
+    <t>【定義】
+( 折讓金額 - 手續費 ) / 1.05 * 5%</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>付款日1</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>付款日2</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yea Contract Column </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初可用堂數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-26 Benjamin canceled this.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>[Type: Information]
 1. If the fiscal year of RIZAP USA also starts from 1st of April?
@@ -840,18 +1410,9 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yuma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[Type: CSV YearContract Data incorrect]
-The records in column M are in the correct state if they are above 0, but there are some that are -1. Please investigate the cause.
-</t>
+[2021-09-01]
+5. What is the tax rate in LA and Hawaii?</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -861,13 +1422,97 @@
 2. Check-in method
 -&gt; Not same in Taiwan, Don't use these tools(Line, Finger print) to avoid any error in US. The key-in by manual is ok. 
 3. Currency
--&gt; Yes, your understanding is correct.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[2021-07-15 Paul Kang]:
-Please Benjamin to provide the screenshots of </t>
+-&gt; Yes, your understanding is correct.
+[2021-07-27]
+Weekly meeting confirm to use US in the ContractID and GuestId.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[2021-08-19 Meeting]:
+Kobayashi san would like to have the English translation for the branches in USA.
+Actions: 
+1. uCare to provide the quotation, done:8/19 by email
+2. uCare to provide the Excel for translation, done:8/19 by Line
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3. RIZAP to complete the translations, due date: TBD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+4. uCare to integrate the translation into the CRM, due date: TBD + 1 week. 
+5. uCare and RIZAP TW to create a new Virtual Machine Server for USA CRM system.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[2021-07-12 Paul Kang:]
+2012-07-12 Benjamin confirmed the definitation of "Refund amount".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Benjamin replied the definitioons on 7/22.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2021-08-18 Paul Kang]:
+Instead of CSV export file, uCare implements Sessions data in the Web tools. There are 76 columns, under development. Under developing.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2021-08-19 Meeting]:
+Benjamin will arrange an afternoon to uCare to discuss the defininations.
+[2021-08-26 Paul and Benjamin on-line discussion]:
+1. Remove "</t>
     </r>
     <r>
       <rPr>
@@ -877,7 +1522,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>中川</t>
+      <t>退費堂數</t>
     </r>
     <r>
       <rPr>
@@ -886,100 +1531,10 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> sessions and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>三宅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> rizap control excel for reference. uCare will evaluate the effoerts/time.
-[2021-07-16]: Benjamin provides the powerpoint and csv files.
- [2017-07-21 Paul Kang]:
-1. Sales management is dffferent from the Sessions CSV files. We found a bug of deducting the products amount again.
-2. RIZAP would like the Sessions CSV data needs to reflect the session status according to date. No historical statistic of each session in database. It would need to trace back to re-calculate the historical data.
+      <t xml:space="preserve">" Session.
+2. Disuss the YearContract definition.
+3. uCare to finish the Web-tool YearContract.
 </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Type: Operating understanding]
-Contract#482 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>李昱璇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, session on 8/14 is not approved, the displayed expiry date is not updated correctly.
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[2021-08-16 Paul Kang]:
-According to the CRM design logic, the approved sessions will be checked at 11pm everyday, then all according data will be updated.
-[2021-02-17 Paul Kang]:
-Contract#482 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>李昱璇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> expiry date has been updated correctly, automatically.
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[2021-08-04 Paul Kang]:
-Under investigation</t>
     </r>
     <r>
       <rPr>
@@ -988,514 +1543,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-[2021-08-17 Paul Kang]:
-Combined into issue#2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2021-08-17 Paul Kang]:
-Combined into issue#2, Closed at 8/19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2021-02-17 Paul Kang]:
-This is not a bug. Closed at 8/19.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2021-08-04 Paul Kang]:
-Under investigation
-[2021-08-17 Paul Kang]:
-Combined into issue#2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10
-Closed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11
-Closed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[2017-07-18 Paul Kang]: Closed
-It needs to delete </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>夏道緣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> from the Guest Management, then create a new guest for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>夏道緣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> with a contract from the Cuest Inquery.
-  </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> [2021-07-28 Paul Kang]:
-1. The bug of deducting the products amount is fixed on 7/28.
-2. Sessions CSV data needs to reflect the session status according to date. This would would be fixed by 8/4.
-3. Instead of CSV export file, uCare implements Sessions data in the Web tools. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-[2021-08-18 Paul Kang]:
-The errors in "session CSV </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>錯誤整理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.pptx"(provided in 7/16) are fixed in the web tool, https://rizap-crm.github.io/web-tools/indexV2Alpha.html. Please Benjamin help to confirm.
-Closed at 8/19</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5
-Closed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[2021-07-12 Paul Kang:]
-2012-07-12 Benjamin confirmed the definitation of "Refund amount".
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Benjamin replied the definitioons on 7/22.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[2021-08-18 Paul Kang]:
-Instead of CSV export file, uCare implements Sessions data in the Web tools. There are 76 columns, under development. Under developing.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-[2021-08-19 Meeting]:
-Benjamin will arrange an afternoon to uCare to discuss the defininations.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2021-08-19 Meeting]:
-Kobayashi san would like to have the English translation for the branches in USA.
-Actions: 
-1. uCare to provide the quotation, due date:8/31
-2. uCare to provide the Excel for translation, due date: 8/31
-3. RIZAP to complete the translations, due date: TBD
-4. uCare to integrate the translation into the CRM, due date: TBD + 1 week.
-5. uCare and RIZAP TW to create a new Virtual Machine Server for USA CRM system.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Column </t>
-  </si>
-  <si>
-    <t>Definition (2021-07-28 By Paul Kang and Benjamin</t>
-  </si>
-  <si>
-    <t>2021-08-06 by Benjamin</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>上課店鋪</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>客戶名字</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>合約上的簽訂日期</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>合約已執行堂數</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>課程單價(含稅)</t>
-  </si>
-  <si>
-    <t>合約總價(含稅)/合約堂數</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>課程單價(未稅)</t>
-  </si>
-  <si>
-    <t>合約總價(未稅)/合約堂數</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>期初可用堂數</t>
-  </si>
-  <si>
-    <t>更名</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>上期認列金額(未稅)</t>
-  </si>
-  <si>
-    <t>3/31之前已認列金額</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>上期為認列金額(未稅)</t>
-  </si>
-  <si>
-    <t>3/31之前合約剩餘金額(未稅)</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>此合約於 2021 年 4 月使用的堂數</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>此合約於 2022 年 1 月使用的堂數</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>此合約於 2021 年 4 月認列的金額(未稅)</t>
-  </si>
-  <si>
-    <t>AH</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>AJ</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>AO</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>此合約於 2022 年 1 月認列的金額(未稅)</t>
-  </si>
-  <si>
-    <t>AQ</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>合約已認列收入(含稅)</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>合約未認列金額(含稅)</t>
-  </si>
-  <si>
-    <t>AV</t>
-  </si>
-  <si>
-    <t>AW</t>
-  </si>
-  <si>
-    <t>退費後還要記錄?</t>
-  </si>
-  <si>
-    <t>需要保留紀錄</t>
-  </si>
-  <si>
-    <t>AX</t>
-  </si>
-  <si>
-    <t>合約金額減除已付款</t>
-  </si>
-  <si>
-    <t>取消堂數</t>
-  </si>
-  <si>
-    <t>【未付款之退費課程】</t>
-  </si>
-  <si>
-    <t>取消金額</t>
-  </si>
-  <si>
-    <t>【取消 = 未收到款項的課程】
-例A : 10萬的合約只付了5萬，此時客人剩餘的不付了
-= 取消5萬
-例B : 10萬的合約付了8萬，上到6萬時退費
-= 取消2萬、折讓2萬</t>
-  </si>
-  <si>
-    <t>AY</t>
-  </si>
-  <si>
-    <t>【折讓 = 合約剩餘金額】
-例A: 全額退費 = 整張合約金額
-例B: 合約全額付清，部分退費時 = 合約剩餘金額</t>
-  </si>
-  <si>
-    <t>折讓堂數</t>
-  </si>
-  <si>
-    <t>【已付款之退費課程】</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>手續費</t>
-  </si>
-  <si>
-    <t>可於解約畫面自行輸入，無須公式</t>
-  </si>
-  <si>
-    <t>折讓稅額</t>
-  </si>
-  <si>
-    <t>【定義】
-( 折讓金額 - 手續費 ) / 1.05 * 5%</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>付款日1</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>BF</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>付款日2</t>
-  </si>
-  <si>
-    <t>BH</t>
-  </si>
-  <si>
-    <t>BI</t>
-  </si>
-  <si>
-    <t>BJ</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>BL</t>
+      <t>[2021-09-01 Paul Kang]:
+Web-tools Alpha2 released for Session and YearContract</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1562,6 +1620,23 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1620,7 +1695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1708,6 +1783,21 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1717,32 +1807,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2027,8 +2105,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2094,7 +2172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="225" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="358.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -2111,7 +2189,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>181</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="24" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.45">
@@ -2130,8 +2208,8 @@
       <c r="F7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>158</v>
+      <c r="G7" s="34" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="24" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.45">
@@ -2150,9 +2228,9 @@
       <c r="F8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:7" s="24" customFormat="1" ht="272.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:7" s="24" customFormat="1" ht="33.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="B9" s="20">
         <v>5</v>
       </c>
@@ -2166,13 +2244,13 @@
         <v>16</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="255" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="304.89999999999998" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <v>6</v>
       </c>
@@ -2183,13 +2261,13 @@
         <v>17</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>182</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="77.25" hidden="1" x14ac:dyDescent="0.45">
@@ -2215,7 +2293,7 @@
     </row>
     <row r="12" spans="1:7" s="24" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.45">
       <c r="B12" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="21">
         <v>44399</v>
@@ -2230,32 +2308,32 @@
         <v>29</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="24" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.45">
       <c r="B13" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C13" s="21">
         <v>44412</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="24" customFormat="1" ht="136.15" hidden="1" x14ac:dyDescent="0.45">
       <c r="B14" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C14" s="21">
         <v>44424</v>
@@ -2264,13 +2342,13 @@
         <v>5</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F14" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="28" t="s">
         <v>171</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2357,7 +2435,7 @@
     </row>
     <row r="6" spans="2:7" s="24" customFormat="1" ht="150" x14ac:dyDescent="0.45">
       <c r="B6" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="21">
         <v>44390</v>
@@ -2371,13 +2449,13 @@
       <c r="F6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>159</v>
+      <c r="G6" s="34" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="2:7" s="24" customFormat="1" ht="272.25" x14ac:dyDescent="0.45">
       <c r="B7" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C7" s="21">
         <v>44392</v>
@@ -2389,13 +2467,13 @@
         <v>16</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>166</v>
+      </c>
+      <c r="G7" s="34"/>
     </row>
     <row r="8" spans="2:7" s="24" customFormat="1" ht="135" x14ac:dyDescent="0.45">
       <c r="B8" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" s="21">
         <v>44391</v>
@@ -2409,7 +2487,7 @@
       <c r="F8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="2:7" s="24" customFormat="1" ht="77.25" x14ac:dyDescent="0.45">
       <c r="B9" s="22" t="s">
@@ -2428,12 +2506,12 @@
         <v>27</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="2:7" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.45">
       <c r="B10" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="21">
         <v>44399</v>
@@ -2448,32 +2526,32 @@
         <v>29</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="2:7" s="24" customFormat="1" ht="90" x14ac:dyDescent="0.45">
       <c r="B11" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C11" s="21">
         <v>44412</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="2:7" s="24" customFormat="1" ht="136.15" x14ac:dyDescent="0.45">
       <c r="B12" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C12" s="21">
         <v>44424</v>
@@ -2482,13 +2560,13 @@
         <v>5</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F12" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>171</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2507,7 +2585,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -2678,11 +2756,11 @@
       </c>
     </row>
     <row r="21" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>156</v>
+      <c r="B21" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -2813,10 +2891,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
         <v>162</v>
-      </c>
-      <c r="B7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -3065,835 +3143,1036 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:E69"/>
+  <sheetPr codeName="工作表6">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="28.59765625" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="52.19921875" customWidth="1"/>
-    <col min="5" max="5" width="44.19921875" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" style="29"/>
+    <col min="3" max="3" width="28.59765625" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="5" max="5" width="52.19921875" customWidth="1"/>
+    <col min="6" max="6" width="44.19921875" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="29">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="29">
+        <v>2</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="C4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="29">
+        <v>3</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="32" t="s">
+      <c r="C5" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="29">
+        <v>4</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="C6" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="29">
+        <v>5</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="29">
+        <v>6</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="29">
+        <v>7</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="29">
+        <v>8</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="29">
+        <v>9</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="29">
+        <v>10</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="29">
+        <v>11</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="29">
+        <v>12</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="29">
+        <v>13</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="29">
+        <v>14</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="29">
+        <v>15</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="29">
+        <v>16</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="36"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="29">
+        <v>17</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="29">
+        <v>18</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20" s="29"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="29">
+        <v>19</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="29"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="29">
+        <v>20</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="29"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="29">
+        <v>21</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="29">
+        <v>22</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="29">
+        <v>23</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="29"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="29">
+        <v>24</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="29"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="29">
+        <v>25</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="29">
+        <v>26</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="29">
+        <v>28</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="29">
+        <v>29</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="29">
+        <v>30</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="E32" s="29"/>
+    </row>
+    <row r="33" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="29">
+        <v>31</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="29"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="29">
         <v>32</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="32"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="B34" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="29"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="29">
         <v>33</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="32"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="B35" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="29"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="29">
         <v>34</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="32"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="B36" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="29"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="29">
         <v>35</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="32"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="B37" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="29"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="29">
         <v>36</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="32"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="32" t="s">
+      <c r="B38" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="29"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="29">
         <v>37</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="32"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="B8" s="32" t="s">
+      <c r="B39" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="29"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="29">
         <v>38</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="32"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="B40" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="29"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="29">
+        <v>39</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="E41" s="29"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="29">
+        <v>40</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="29"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="29">
         <v>41</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="32"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="32" t="s">
+      <c r="B43" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="29"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" s="29">
         <v>42</v>
       </c>
-      <c r="D10" s="32"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="32" t="s">
+      <c r="B44" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="E44" s="33"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" s="29">
         <v>43</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="32"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="B12" s="32" t="s">
+      <c r="B45" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="33"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" s="29">
+        <v>44</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E46" s="33"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="29">
+        <v>45</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="33"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" s="32">
         <v>46</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="32"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="32"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="32"/>
-    </row>
-    <row r="15" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18" s="31"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="32"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="32"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="32"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="32"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="32"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="32"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="32"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="32"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="32"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="D29" s="32"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="32"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="32"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="D32" s="32"/>
-    </row>
-    <row r="33" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="32"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="32"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="32"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" s="32"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="D37" s="32"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D38" s="32"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="32"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="D40" s="32"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="D41" s="32"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="D42" s="32"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="32" t="s">
+      <c r="B48" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="B43" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="32"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" s="32" t="s">
+      <c r="C48" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="B44" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="32" t="s">
+      <c r="E48" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="D44" s="37"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="32" t="s">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="32">
+        <v>47</v>
+      </c>
+      <c r="B49" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="B45" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="37"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="32" t="s">
+      <c r="C49" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="B46" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="32" t="s">
+      <c r="E49" s="32"/>
+    </row>
+    <row r="50" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="32">
+        <v>48</v>
+      </c>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="D46" s="37"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" s="32" t="s">
+      <c r="D50" s="32"/>
+      <c r="E50" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="B47" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="37"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" s="32" t="s">
+    </row>
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="80.650000000000006" x14ac:dyDescent="0.45">
+      <c r="A51" s="32">
+        <v>49</v>
+      </c>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="B48" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="33" t="s">
+      <c r="D51" s="33"/>
+      <c r="E51" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="D48" s="33" t="s">
+    </row>
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="48.4" x14ac:dyDescent="0.45">
+      <c r="A52" s="32">
+        <v>50</v>
+      </c>
+      <c r="B52" s="32" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" s="32" t="s">
+      <c r="C52" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="B49" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="33" t="s">
+    </row>
+    <row r="53" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="32">
+        <v>51</v>
+      </c>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="D49" s="33"/>
-    </row>
-    <row r="50" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="32"/>
-      <c r="B50" s="33" t="s">
+      <c r="D53" s="32"/>
+      <c r="E53" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="39" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" s="32">
+        <v>52</v>
+      </c>
+      <c r="B54" s="32" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" s="18" customFormat="1" ht="80.650000000000006" x14ac:dyDescent="0.45">
-      <c r="A51" s="32"/>
-      <c r="B51" s="33" t="s">
+      <c r="C54" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="40" t="s">
+      <c r="D54" s="33"/>
+      <c r="E54" s="41" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="18" customFormat="1" ht="48.4" x14ac:dyDescent="0.45">
-      <c r="A52" s="32" t="s">
+    <row r="55" spans="1:5" ht="32.25" x14ac:dyDescent="0.45">
+      <c r="A55" s="32">
+        <v>53</v>
+      </c>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="B52" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="40" t="s">
+      <c r="D55" s="33"/>
+      <c r="E55" s="40" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="32"/>
-      <c r="B53" s="33" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" s="29">
+        <v>54</v>
+      </c>
+      <c r="B56" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="39" t="s">
+      <c r="C56" s="29" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" s="32" t="s">
+      <c r="D56" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="E56" s="29"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" s="29">
+        <v>55</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="C57" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="29"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" s="29">
+        <v>56</v>
+      </c>
+      <c r="B58" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="38" t="s">
+      <c r="C58" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="29"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" s="29">
+        <v>57</v>
+      </c>
+      <c r="B59" s="29" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="32.25" x14ac:dyDescent="0.45">
-      <c r="A55" s="32"/>
-      <c r="B55" s="33" t="s">
+      <c r="C59" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="29"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="29">
+        <v>58</v>
+      </c>
+      <c r="B60" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="C55" s="36"/>
-      <c r="D55" s="40" t="s">
+      <c r="C60" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="29"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" s="29">
+        <v>59</v>
+      </c>
+      <c r="B61" s="29" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" s="32" t="s">
+      <c r="C61" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="29"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" s="29">
+        <v>60</v>
+      </c>
+      <c r="B62" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="C62" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="D62" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="D56" s="32"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" s="32" t="s">
+      <c r="E62" s="29"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" s="29">
+        <v>61</v>
+      </c>
+      <c r="B63" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="C63" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="D63" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D57" s="32"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" s="32" t="s">
+      <c r="E63" s="29"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" s="29">
+        <v>62</v>
+      </c>
+      <c r="B64" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="C64" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="D64" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="32"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" s="32" t="s">
+      <c r="E64" s="29"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" s="29">
+        <v>63</v>
+      </c>
+      <c r="B65" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="C65" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="D65" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="32"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" s="32" t="s">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" s="29">
+        <v>64</v>
+      </c>
+      <c r="B66" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="C66" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="D66" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D60" s="32"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" s="32" t="s">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" s="29">
+        <v>65</v>
+      </c>
+      <c r="B67" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="C67" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="D67" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="32"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="D62" s="32"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D63" s="32"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D64" s="32"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="B65" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="B67" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="34"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="34"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B68" s="31"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B69" s="31"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RIZAP Issues/RIZAP CRM issues.xlsx
+++ b/RIZAP Issues/RIZAP CRM issues.xlsx
@@ -1798,6 +1798,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1806,21 +1821,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2105,8 +2105,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2208,7 +2208,7 @@
       <c r="F7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="39" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       <c r="F8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="35"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:7" s="24" customFormat="1" ht="33.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="B9" s="20">
@@ -2449,7 +2449,7 @@
       <c r="F6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="39" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       <c r="F7" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="2:7" s="24" customFormat="1" ht="135" x14ac:dyDescent="0.45">
       <c r="B8" s="22" t="s">
@@ -2487,7 +2487,7 @@
       <c r="F8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="35"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="2:7" s="24" customFormat="1" ht="77.25" x14ac:dyDescent="0.45">
       <c r="B9" s="22" t="s">
@@ -2756,10 +2756,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="35" t="s">
         <v>279</v>
       </c>
     </row>
@@ -3412,7 +3412,7 @@
       <c r="D17" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="41" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       <c r="D18" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="E18" s="36"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="29">
@@ -3444,7 +3444,7 @@
       <c r="D19" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="E19" s="36"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="29">
@@ -3907,7 +3907,7 @@
         <v>250</v>
       </c>
       <c r="D50" s="32"/>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="36" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3920,7 +3920,7 @@
         <v>252</v>
       </c>
       <c r="D51" s="33"/>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="37" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
         <v>135</v>
       </c>
       <c r="D52" s="33"/>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="37" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
         <v>256</v>
       </c>
       <c r="D53" s="32"/>
-      <c r="E53" s="39" t="s">
+      <c r="E53" s="36" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3963,7 +3963,7 @@
         <v>259</v>
       </c>
       <c r="D54" s="33"/>
-      <c r="E54" s="41" t="s">
+      <c r="E54" s="38" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
         <v>261</v>
       </c>
       <c r="D55" s="33"/>
-      <c r="E55" s="40" t="s">
+      <c r="E55" s="37" t="s">
         <v>262</v>
       </c>
     </row>

--- a/RIZAP Issues/RIZAP CRM issues.xlsx
+++ b/RIZAP Issues/RIZAP CRM issues.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="285">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1416,7 +1416,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> [2021-07-21 Kobayashi]:
+    <t>[2021-09-16 Paul Kang]:
+Reverve the last result of customerPaidAmont at the last row of the same contract. Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[2021-07-12 Paul Kang:]
+Benjamin confirmed the definitation of "Refund amount". </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Benjamin replied the definitioons on 7/22.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2021-08-18 Paul Kang]:
+Instead of CSV export file, uCare implements Sessions data in the Web tools. There are 76 columns, under development. Under developing.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2021-08-19 Meeting]:
+Benjamin will arrange an afternoon to uCare to discuss the defininations.
+[2021-08-26 Paul and Benjamin on-line discussion]:
+1. Remove "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>退費堂數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">" Session.
+2. Disuss the YearContract definition.
+3. uCare to finish the Web-tool YearContract.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2021-09-01 Paul Kang]:
+Web-tools Alpha2 released for Session and YearContract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2021-09-16 Paul Kang]:
+Multiple payments listed in different rows, but only the first row has full data, the rest rows only have didderent payment data. Done</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [2021-07-21 Kobayashi]:
 1. The fiscal year of RIZAP USA 
 -&gt;Yes, Start from 1st of April
 2. Check-in method
@@ -1424,7 +1547,25 @@
 3. Currency
 -&gt; Yes, your understanding is correct.
 [2021-07-27]
-Weekly meeting confirm to use US in the ContractID and GuestId.</t>
+Weekly meeting confirm to use US in the ContractID and GuestId.
+[2021-09-22 Kobayashi]: The tax rate of Hawaii is 4.712%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2021-10-07 Kobayashi]: 211007_US-TAX.xlsx
+Hawaii: 
+  - Product Sales tax: 4.712%
+  - Service Sales tax:  4.712%
+California:
+  - Product Sales tax: 10.25%
+  - Service Sales tax: 0%</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1443,7 +1584,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>3. RIZAP to complete the translations, due date: TBD</t>
+      <t>3. RIZAP to complete the translations, due date: Excepted to be done in the week of 9/27</t>
     </r>
     <r>
       <rPr>
@@ -1454,15 +1595,7 @@
       </rPr>
       <t xml:space="preserve">
 4. uCare to integrate the translation into the CRM, due date: TBD + 1 week. 
-5. uCare and RIZAP TW to create a new Virtual Machine Server for USA CRM system.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[2021-07-12 Paul Kang:]
-2012-07-12 Benjamin confirmed the definitation of "Refund amount".
-</t>
+5. uCare and RIZAP TW to create a new Virtual Machine </t>
     </r>
     <r>
       <rPr>
@@ -1470,7 +1603,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Benjamin replied the definitioons on 7/22.</t>
+      <t>Server for USA CRM system.</t>
     </r>
     <r>
       <rPr>
@@ -1479,72 +1612,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[2021-08-18 Paul Kang]:
-Instead of CSV export file, uCare implements Sessions data in the Web tools. There are 76 columns, under development. Under developing.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[2021-08-19 Meeting]:
-Benjamin will arrange an afternoon to uCare to discuss the defininations.
-[2021-08-26 Paul and Benjamin on-line discussion]:
-1. Remove "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>退費堂數</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">" Session.
-2. Disuss the YearContract definition.
-3. uCare to finish the Web-tool YearContract.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[2021-09-01 Paul Kang]:
-Web-tools Alpha2 released for Session and YearContract</t>
+[based on 10/7 MTG] Before the English translation is completed, uCare to set up a virtual machine server for Santa Monica store. With the existing language condition as a beta CRM system for training first, due by 10/14.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1695,7 +1764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1812,6 +1881,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2103,10 +2175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2172,7 +2244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="358.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="383.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -2189,171 +2261,178 @@
         <v>12</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="24" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="25" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="5"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="24" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C8" s="21">
         <v>44390</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="24" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="25">
-        <v>4</v>
-      </c>
-      <c r="C8" s="21">
-        <v>44391</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="24" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="25">
+        <v>4</v>
+      </c>
+      <c r="C9" s="21">
+        <v>44391</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" s="24" customFormat="1" ht="33.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="20">
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="1:7" s="24" customFormat="1" ht="46.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="20">
         <v>5</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C10" s="21">
         <v>44392</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F10" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G10" s="27" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="304.89999999999998" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="3">
+    <row r="11" spans="1:7" ht="360" x14ac:dyDescent="0.45">
+      <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C11" s="5">
         <v>44392</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="77.25" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="24"/>
-      <c r="B11" s="22" t="s">
+      <c r="F11" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="77.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="24"/>
+      <c r="B12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C12" s="21">
         <v>44394</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G12" s="26" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="24" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="21">
-        <v>44399</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="24" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.45">
       <c r="B13" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="21">
+        <v>44399</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="24" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C14" s="21">
         <v>44412</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D14" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E14" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F14" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G14" s="28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="24" customFormat="1" ht="136.15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="22" t="s">
+    <row r="15" spans="1:7" s="24" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C15" s="21">
         <v>44424</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E15" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F15" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G15" s="28" t="s">
         <v>171</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2449,7 +2528,7 @@
       <c r="F6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="40" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2469,7 +2548,7 @@
       <c r="F7" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="39"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="2:7" s="24" customFormat="1" ht="135" x14ac:dyDescent="0.45">
       <c r="B8" s="22" t="s">
@@ -2487,7 +2566,7 @@
       <c r="F8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="40"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="2:7" s="24" customFormat="1" ht="77.25" x14ac:dyDescent="0.45">
       <c r="B9" s="22" t="s">
@@ -3412,7 +3491,7 @@
       <c r="D17" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="42" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3429,7 +3508,7 @@
       <c r="D18" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="E18" s="41"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="29">
@@ -3444,7 +3523,7 @@
       <c r="D19" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="E19" s="41"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="29">

--- a/RIZAP Issues/RIZAP CRM issues.xlsx
+++ b/RIZAP Issues/RIZAP CRM issues.xlsx
@@ -1376,6 +1376,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[2021-09-16 Paul Kang]:
+Reverve the last result of customerPaidAmont at the last row of the same contract. Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[2021-07-12 Paul Kang:]
+Benjamin confirmed the definitation of "Refund amount". </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Benjamin replied the definitioons on 7/22.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2021-08-18 Paul Kang]:
+Instead of CSV export file, uCare implements Sessions data in the Web tools. There are 76 columns, under development. Under developing.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2021-08-19 Meeting]:
+Benjamin will arrange an afternoon to uCare to discuss the defininations.
+[2021-08-26 Paul and Benjamin on-line discussion]:
+1. Remove "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>退費堂數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">" Session.
+2. Disuss the YearContract definition.
+3. uCare to finish the Web-tool YearContract.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2021-09-01 Paul Kang]:
+Web-tools Alpha2 released for Session and YearContract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2021-09-16 Paul Kang]:
+Multiple payments listed in different rows, but only the first row has full data, the rest rows only have didderent payment data. Done</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>[Type: Information]
 1. If the fiscal year of RIZAP USA also starts from 1st of April?
@@ -1410,37 +1532,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-[2021-09-01]
-5. What is the tax rate in LA and Hawaii?</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2021-09-16 Paul Kang]:
-Reverve the last result of customerPaidAmont at the last row of the same contract. Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[2021-07-12 Paul Kang:]
-Benjamin confirmed the definitation of "Refund amount". </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Benjamin replied the definitioons on 7/22.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
 </t>
     </r>
     <r>
@@ -1450,90 +1541,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[2021-08-18 Paul Kang]:
-Instead of CSV export file, uCare implements Sessions data in the Web tools. There are 76 columns, under development. Under developing.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[2021-08-19 Meeting]:
-Benjamin will arrange an afternoon to uCare to discuss the defininations.
-[2021-08-26 Paul and Benjamin on-line discussion]:
-1. Remove "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>退費堂數</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">" Session.
-2. Disuss the YearContract definition.
-3. uCare to finish the Web-tool YearContract.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[2021-09-01 Paul Kang]:
-Web-tools Alpha2 released for Session and YearContract</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[2021-09-16 Paul Kang]:
-Multiple payments listed in different rows, but only the first row has full data, the rest rows only have didderent payment data. Done</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>[2021-09-01]
+5. What is the tax rate in LA and Hawaii?</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1554,7 +1563,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1613,7 +1622,8 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-[based on 10/7 MTG] Before the English translation is completed, uCare to set up a virtual machine server for Santa Monica store. With the existing language condition as a beta CRM system for training first, due by 10/14.</t>
+[based on 10/7 MTG] Before the English translation is completed, uCare to set up a virtual machine server for Santa Monica store. With the existing language condition as a beta CRM system for training first, due by 10/14.
+6. [2021-10-14] Inquery form API for Santa Monica store (due: 10/21)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2261,14 +2271,14 @@
         <v>12</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C7" s="5"/>
       <c r="F7" s="17"/>
       <c r="G7" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="24" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.45">
@@ -2340,7 +2350,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>283</v>

--- a/RIZAP Issues/RIZAP CRM issues.xlsx
+++ b/RIZAP Issues/RIZAP CRM issues.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="302">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1622,8 +1622,229 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-[based on 10/7 MTG] Before the English translation is completed, uCare to set up a virtual machine server for Santa Monica store. With the existing language condition as a beta CRM system for training first, due by 10/14.
-6. [2021-10-14] Inquery form API for Santa Monica store (due: 10/21)</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[based on 10/7 MTG] Before the English translation is completed, uCare to set up a virtual machine server for Santa Monica store. With the existing language condition as a beta CRM system for training first, due by 10/14. done on 10/14
+6. [2021-10-14] Inquery form API for Santa Monica store (due: 10/21), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>done on 10/19</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiona</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On 11/1 some guest can not get QR code displayed on their apps.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empolyees can not reserve leaves on the CRM system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After the moving, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>信義店</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'s app for manual registration and QR code checking is not working.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2021-11-02 Paul Kang] The error report from the Microsoft Server says the service was interrupt for a period of time in 11/1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2021-11-02 Paul Kang] It maybe caused by some wifi and program setting problem.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[2021-11-02 Paul Kang]  The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>出勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Attendance) table only shows records from the beginning of the month to Today. So if an employee applies a leave after today, it's in the database, but is not shown in the table. So the employee tries to re-apply, and the error message shown.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiona would like the CRM system to show the leave information on the Employee pernal page.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please inform UCARE immedidately when ths problem happened. UCARE can restart the server to reduce the down time. [Closed]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2021-11-02 Paul Kang] Modify CRM to show all month of this month. Fixed at 10/4, wait for Fiona's confirmation.
+[Closed]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benjamin, Richard and Fiona fixed for the setting in the afternoon of 11/4. 
+[Closed]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Fiona would like to change the naming of "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>特休</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" to "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年休</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" in the CRM system</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Confirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with Fiona</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2021-11-02 Paul Kang] Done at 11/8
+[Closed]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The information is already linked, need to operate correctly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiona</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">教練的出勤，休息時間，
+管理者修改調整，可以管理者手動方式，比較方便。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>比較有彈性空間</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)
+Would like to manually modify he time table record (checkin/checkout/restout/resetin) of staffs.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1717,7 +1938,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1748,6 +1969,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1774,7 +2001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1894,6 +2121,39 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1919,6 +2179,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>576792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1238290</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1033995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6281209" y="9297459"/>
+          <a:ext cx="5381664" cy="457203"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>42332</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>195791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1119226</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>581556</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6281208" y="8720667"/>
+          <a:ext cx="5262601" cy="385765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2185,10 +2538,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2199,7 +2553,7 @@
     <col min="4" max="4" width="10.9296875" style="3" customWidth="1"/>
     <col min="5" max="5" width="52.796875" style="6" customWidth="1"/>
     <col min="6" max="6" width="58.59765625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="61.06640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="61.06640625" style="17" customWidth="1"/>
     <col min="8" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
@@ -2212,7 +2566,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="4"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="4" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B4" s="14" t="s">
@@ -2230,223 +2584,337 @@
       <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:7" ht="9.85" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:7" s="8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C6" s="10">
         <v>44364</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G6" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="383.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="3">
+    <row r="7" spans="1:7" ht="383.65" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C7" s="5">
         <v>44368</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="5"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="39" t="s">
+    <row r="8" spans="1:7" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="5"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="39" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="24" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="25" t="s">
+    <row r="9" spans="1:7" s="24" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C9" s="21">
         <v>44390</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="24" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="25">
-        <v>4</v>
-      </c>
-      <c r="C9" s="21">
-        <v>44391</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="24" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="25">
+        <v>4</v>
+      </c>
+      <c r="C10" s="21">
+        <v>44391</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="41"/>
-    </row>
-    <row r="10" spans="1:7" s="24" customFormat="1" ht="46.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="20">
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="1:7" s="24" customFormat="1" ht="272.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="20">
         <v>5</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C11" s="21">
         <v>44392</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F11" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G11" s="40" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="360" x14ac:dyDescent="0.45">
-      <c r="B11" s="3">
+    <row r="12" spans="1:7" ht="360" x14ac:dyDescent="0.45">
+      <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C12" s="5">
         <v>44392</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F12" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="77.25" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="24"/>
-      <c r="B12" s="22" t="s">
+    <row r="13" spans="1:7" ht="77.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="24"/>
+      <c r="B13" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C13" s="21">
         <v>44394</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G13" s="40" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="24" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="21">
-        <v>44399</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="24" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.45">
       <c r="B14" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="21">
+        <v>44399</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="24" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C15" s="21">
         <v>44412</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D15" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E15" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F15" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G15" s="28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="24" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="22" t="s">
+    <row r="16" spans="1:7" s="24" customFormat="1" ht="136.15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C16" s="21">
         <v>44424</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E16" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F16" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G16" s="28" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.45">
+      <c r="B17" s="44">
+        <v>12</v>
+      </c>
+      <c r="C17" s="45">
+        <v>44501</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="48" customFormat="1" ht="76.150000000000006" x14ac:dyDescent="0.45">
+      <c r="B18" s="44">
+        <v>13</v>
+      </c>
+      <c r="C18" s="45">
+        <v>44501</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="48" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="44">
+        <v>14</v>
+      </c>
+      <c r="C19" s="45">
+        <v>44501</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="48" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="44">
+        <v>15</v>
+      </c>
+      <c r="C20" s="45">
+        <v>44501</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="3">
+        <v>16</v>
+      </c>
+      <c r="C21" s="5">
+        <v>44501</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G21" s="49"/>
+    </row>
+    <row r="22" spans="2:7" ht="93.4" x14ac:dyDescent="0.45">
+      <c r="B22" s="3">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5">
+        <v>44504</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2538,7 +3006,7 @@
       <c r="F6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="51" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2558,7 +3026,7 @@
       <c r="F7" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="2:7" s="24" customFormat="1" ht="135" x14ac:dyDescent="0.45">
       <c r="B8" s="22" t="s">
@@ -2576,7 +3044,7 @@
       <c r="F8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="41"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="2:7" s="24" customFormat="1" ht="77.25" x14ac:dyDescent="0.45">
       <c r="B9" s="22" t="s">
@@ -3501,7 +3969,7 @@
       <c r="D17" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="53" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3518,7 +3986,7 @@
       <c r="D18" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="E18" s="42"/>
+      <c r="E18" s="53"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="29">
@@ -3533,7 +4001,7 @@
       <c r="D19" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="E19" s="42"/>
+      <c r="E19" s="53"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="29">
